--- a/face_recognition/diemdanh.xlsx
+++ b/face_recognition/diemdanh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,26 @@
           <t>23-05-2024</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09-23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -449,6 +469,18 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -459,6 +491,18 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -469,6 +513,18 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -477,6 +533,54 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ISA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DUONG NHI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
